--- a/7rmartproject/src/test/resources/TestData.xlsx
+++ b/7rmartproject/src/test/resources/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fortb\git\Automation_Repo\7rmartproject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8323F389-B9E3-4884-81B5-BF531C73F76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF73BCA-1FCE-4EBF-9A8A-D3A82CA4301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="SubCategoryPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -59,6 +60,24 @@
   </si>
   <si>
     <t>staff</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>RiceCooker</t>
+  </si>
+  <si>
+    <t>Millet</t>
+  </si>
+  <si>
+    <t>Electronics</t>
   </si>
 </sst>
 </file>
@@ -436,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA1E53-3CB8-4978-B1B7-E04DFD913A55}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -467,4 +486,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87631D8A-2798-4D8A-AB5B-0B00ADAEEE4F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rmartproject/src/test/resources/TestData.xlsx
+++ b/7rmartproject/src/test/resources/TestData.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fortb\git\Automation_Repo\7rmartproject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF73BCA-1FCE-4EBF-9A8A-D3A82CA4301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872AF2F3-2873-40F4-9819-8DD3B8188FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
     <sheet name="SubCategoryPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageProductPage" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageFooterPage" sheetId="5" r:id="rId5"/>
+    <sheet name="ManageContactPage" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -78,16 +81,73 @@
   </si>
   <si>
     <t>Electronics</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Thrissur</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery_time	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery Charge Limit	</t>
+  </si>
+  <si>
+    <t>Minimum qty</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Chicken Burger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,13 +170,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87631D8A-2798-4D8A-AB5B-0B00ADAEEE4F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -525,4 +589,137 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9A99C9-DCB9-45B0-832D-40072BD93A9C}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82990040-9C77-4AB7-A313-C9C98DF2E160}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>1234567890</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F73622DF-5F1B-4039-88D7-9C191439AC7E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFBEC28-907A-4D26-8D45-313BB14CD8DC}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rmartproject/src/test/resources/TestData.xlsx
+++ b/7rmartproject/src/test/resources/TestData.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fortb\git\Automation_Repo\7rmartproject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872AF2F3-2873-40F4-9819-8DD3B8188FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0190084A-77F6-46D7-B530-4B1655945812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
     <sheet name="SubCategoryPage" sheetId="3" r:id="rId3"/>
     <sheet name="ManageProductPage" sheetId="4" r:id="rId4"/>
-    <sheet name="ManageFooterPage" sheetId="5" r:id="rId5"/>
-    <sheet name="ManageContactPage" sheetId="6" r:id="rId6"/>
+    <sheet name="MangeNewsPage" sheetId="7" r:id="rId5"/>
+    <sheet name="ManageFooterPage" sheetId="5" r:id="rId6"/>
+    <sheet name="ManageContactPage" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -123,6 +124,12 @@
   </si>
   <si>
     <t>Chicken Burger</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>news new</t>
   </si>
 </sst>
 </file>
@@ -595,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9A99C9-DCB9-45B0-832D-40072BD93A9C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -649,6 +656,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFC5743-458A-43BE-8245-0EDD645222C8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82990040-9C77-4AB7-A313-C9C98DF2E160}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -692,7 +724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFBEC28-907A-4D26-8D45-313BB14CD8DC}">
   <dimension ref="A1:E1"/>
   <sheetViews>
